--- a/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C959183-A050-4246-894B-F250F83DA1F6}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602A727C-69D9-495E-8BCC-6A284ACFB677}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3915" windowWidth="25170" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -707,26 +707,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,26 +817,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1993,21 +1995,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2222,32 +2209,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2264,4 +2241,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/mdJSONdictio/inst/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{602A727C-69D9-495E-8BCC-6A284ACFB677}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500E17EA-FDE6-4EF6-BAF8-62FC9B546FC1}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3915" windowWidth="25170" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="113">
   <si>
     <t>codeName</t>
   </si>
@@ -420,11 +420,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,11 +706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +720,10 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -730,48 +731,68 @@
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,7 +1789,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,6 +2016,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2209,22 +2245,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2241,29 +2287,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A7F80B6-A8F8-4FBE-8961-7EA21E322D52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
+++ b/inst/templates/mdJSONdictio_Dictionary_Template_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{500E17EA-FDE6-4EF6-BAF8-62FC9B546FC1}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_365F113B0B881ECF37D0853E5545BA4ACE1F468E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A49469E-0F1D-4B80-B73C-7FB58FA28449}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="111">
   <si>
     <t>codeName</t>
   </si>
@@ -358,12 +358,6 @@
   </si>
   <si>
     <t>unknown</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>Indicates whether null values are permitted as the attribute value (TRUE/FALSE)</t>
@@ -420,12 +414,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,11 +699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +713,10 @@
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -731,102 +724,73 @@
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 I1:I1048576" xr:uid="{60A7E477-C4AE-4A3A-B7F8-C796DCF542EB}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>validation_values!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I1</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>validation_values!$A$1:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>validation_values!$B$1:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576 I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -840,7 +804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
@@ -1636,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>40</v>
@@ -1789,7 +1753,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,17 +1762,13 @@
       <c r="A1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
